--- a/results/wx07/keypoints/Distance Ratio Statistics.xlsx
+++ b/results/wx07/keypoints/Distance Ratio Statistics.xlsx
@@ -180,7 +180,7 @@
   <dimension ref="A2:P30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7:P7"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -257,7 +257,7 @@
       </c>
       <c r="D3" s="0" t="e">
         <f aca="false"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>10.3998</v>
@@ -276,7 +276,7 @@
       </c>
       <c r="J3" s="0" t="e">
         <f aca="false"/>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>1.5202523109349</v>
@@ -309,7 +309,7 @@
       </c>
       <c r="D4" s="0" t="e">
         <f aca="false"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>14.4725</v>
@@ -328,7 +328,7 @@
       </c>
       <c r="J4" s="0" t="e">
         <f aca="false"/>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>1.05754212539813</v>
@@ -361,7 +361,7 @@
       </c>
       <c r="D5" s="0" t="e">
         <f aca="false"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>9.64777</v>
@@ -503,6 +503,52 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>8</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>28.8199233333333</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>9.58607666666667</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>38.406</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>38.406</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>24.026885</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>38.406</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>275.678597577633</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>16.6035718319172</v>
+      </c>
+      <c r="J8" s="0" t="e">
+        <f aca="false"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>-1.73205080756888</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>28.75823</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>9.64777</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>38.406</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>86.45977</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,7 +680,7 @@
   <dimension ref="A2:P30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7:P7"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -711,7 +757,7 @@
       </c>
       <c r="D3" s="0" t="e">
         <f aca="false"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>21.392075</v>
@@ -730,11 +776,11 @@
       </c>
       <c r="J3" s="0" t="e">
         <f aca="false"/>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="K3" s="0" t="e">
         <f aca="false"/>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>34.02785</v>
@@ -764,7 +810,7 @@
       </c>
       <c r="D4" s="0" t="e">
         <f aca="false"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>21.130115</v>
@@ -783,11 +829,11 @@
       </c>
       <c r="J4" s="0" t="e">
         <f aca="false"/>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="K4" s="0" t="e">
         <f aca="false"/>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>34.55177</v>
@@ -817,7 +863,7 @@
       </c>
       <c r="D5" s="0" t="e">
         <f aca="false"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>7.151025</v>
@@ -868,7 +914,7 @@
       </c>
       <c r="D6" s="0" t="e">
         <f aca="false"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>9.64777</v>
@@ -887,7 +933,7 @@
       </c>
       <c r="J6" s="0" t="e">
         <f aca="false"/>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>1.58679240258701</v>
@@ -920,7 +966,7 @@
       </c>
       <c r="D7" s="0" t="e">
         <f aca="false"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>5.13063</v>
@@ -939,7 +985,7 @@
       </c>
       <c r="J7" s="0" t="e">
         <f aca="false"/>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>1.72924820623405</v>
@@ -963,6 +1009,54 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>8</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>24.026885</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>14.379115</v>
+      </c>
+      <c r="D8" s="0" t="e">
+        <f aca="false"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>24.026885</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>16.8373275</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>31.2164425</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>413.51789636645</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>20.3351394479224</v>
+      </c>
+      <c r="J8" s="0" t="e">
+        <f aca="false"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K8" s="0" t="e">
+        <f aca="false"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>28.75823</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>9.64777</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>38.406</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>48.05377</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1094,7 +1188,7 @@
   <dimension ref="A2:P30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K36" activeCellId="1" sqref="B7:P7 K36"/>
+      <selection pane="topLeft" activeCell="K36" activeCellId="1" sqref="B8:P8 K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1173,7 +1267,7 @@
       </c>
       <c r="D3" s="0" t="e">
         <f aca="false">'Without Outliers'!D3/All!D3</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E3" s="0" t="n">
         <f aca="false">'Without Outliers'!E3/All!E3</f>
@@ -1197,11 +1291,11 @@
       </c>
       <c r="J3" s="0" t="e">
         <f aca="false">'Without Outliers'!J3/All!J3</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="K3" s="0" t="e">
         <f aca="false">'Without Outliers'!K3/All!K3</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L3" s="0" t="n">
         <f aca="false">'Without Outliers'!L3/All!L3</f>
@@ -1238,7 +1332,7 @@
       </c>
       <c r="D4" s="0" t="e">
         <f aca="false">'Without Outliers'!D4/All!D4</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">'Without Outliers'!E4/All!E4</f>
@@ -1262,11 +1356,11 @@
       </c>
       <c r="J4" s="0" t="e">
         <f aca="false">'Without Outliers'!J4/All!J4</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="K4" s="0" t="e">
         <f aca="false">'Without Outliers'!K4/All!K4</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L4" s="0" t="n">
         <f aca="false">'Without Outliers'!L4/All!L4</f>
@@ -1303,7 +1397,7 @@
       </c>
       <c r="D5" s="0" t="e">
         <f aca="false">'Without Outliers'!D5/All!D5</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E5" s="0" t="n">
         <f aca="false">'Without Outliers'!E5/All!E5</f>
@@ -1368,7 +1462,7 @@
       </c>
       <c r="D6" s="0" t="e">
         <f aca="false">'Without Outliers'!D6/All!D6</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">'Without Outliers'!E6/All!E6</f>
@@ -1392,7 +1486,7 @@
       </c>
       <c r="J6" s="0" t="e">
         <f aca="false">'Without Outliers'!J6/All!J6</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="K6" s="0" t="n">
         <f aca="false">'Without Outliers'!K6/All!K6</f>
@@ -1433,7 +1527,7 @@
       </c>
       <c r="D7" s="0" t="e">
         <f aca="false">'Without Outliers'!D7/All!D7</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">'Without Outliers'!E7/All!E7</f>
@@ -1457,7 +1551,7 @@
       </c>
       <c r="J7" s="0" t="e">
         <f aca="false">'Without Outliers'!J7/All!J7</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="K7" s="0" t="n">
         <f aca="false">'Without Outliers'!K7/All!K7</f>
@@ -1488,65 +1582,65 @@
       <c r="A8" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B8" s="0" t="e">
+      <c r="B8" s="0" t="n">
         <f aca="false">'Without Outliers'!B8/All!B8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C8" s="0" t="e">
+        <v>0.833690108127745</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <f aca="false">'Without Outliers'!C8/All!C8</f>
-        <v>#DIV/0!</v>
+        <v>1.5</v>
       </c>
       <c r="D8" s="0" t="e">
         <f aca="false">'Without Outliers'!D8/All!D8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="0" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <f aca="false">'Without Outliers'!E8/All!E8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="0" t="e">
+        <v>0.625602379836484</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <f aca="false">'Without Outliers'!F8/All!F8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="0" t="e">
+        <v>0.700770303765969</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <f aca="false">'Without Outliers'!G8/All!G8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="0" t="e">
+        <v>0.812801189918242</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <f aca="false">'Without Outliers'!H8/All!H8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="0" t="e">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="0" t="n">
         <f aca="false">'Without Outliers'!I8/All!I8</f>
-        <v>#DIV/0!</v>
+        <v>1.22474487139159</v>
       </c>
       <c r="J8" s="0" t="e">
         <f aca="false">'Without Outliers'!J8/All!J8</f>
-        <v>#DIV/0!</v>
+        <v>#NUM!</v>
       </c>
       <c r="K8" s="0" t="e">
         <f aca="false">'Without Outliers'!K8/All!K8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="0" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L8" s="0" t="n">
         <f aca="false">'Without Outliers'!L8/All!L8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="0" t="e">
+        <v>1</v>
+      </c>
+      <c r="M8" s="0" t="n">
         <f aca="false">'Without Outliers'!M8/All!M8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="0" t="e">
+        <v>1</v>
+      </c>
+      <c r="N8" s="0" t="n">
         <f aca="false">'Without Outliers'!N8/All!N8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" s="0" t="e">
+        <v>1</v>
+      </c>
+      <c r="O8" s="0" t="n">
         <f aca="false">'Without Outliers'!O8/All!O8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P8" s="0" t="e">
+        <v>0.555793405418497</v>
+      </c>
+      <c r="P8" s="0" t="n">
         <f aca="false">'Without Outliers'!P8/All!P8</f>
-        <v>#DIV/0!</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
